--- a/medicine/Mort/Cimetière_Saint-Étienne_de_Bayonne/Cimetière_Saint-Étienne_de_Bayonne.xlsx
+++ b/medicine/Mort/Cimetière_Saint-Étienne_de_Bayonne/Cimetière_Saint-Étienne_de_Bayonne.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_Saint-%C3%89tienne_de_Bayonne</t>
+          <t>Cimetière_Saint-Étienne_de_Bayonne</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le cimetière Saint-Étienne est l'un des trois[1] cimetières de la ville de Bayonne dans les Pyrénées-Atlantiques[2]. Il est situé avenue du 14-avril-1814.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le cimetière Saint-Étienne est l'un des trois cimetières de la ville de Bayonne dans les Pyrénées-Atlantiques. Il est situé avenue du 14-avril-1814.
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_Saint-%C3%89tienne_de_Bayonne</t>
+          <t>Cimetière_Saint-Étienne_de_Bayonne</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,9 +523,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il s'agit d'un petit cimetière minéral et peu arboré avec des allées de gravier à angle droit à l'ombre de l'église Saint-Étienne-lès-Bayonne, dans le quartier Saint-Étienne. Les tombes présentent peu d'intérêt artistique, mais témoignent pour certaines du passé historique local. Il n'y a pas de chapelles funéraires. Une partie est surélevée. Il existe un carré militaire pour les soldats français et où des marins allemands ont été enterrés pendant l'Occupation[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il s'agit d'un petit cimetière minéral et peu arboré avec des allées de gravier à angle droit à l'ombre de l'église Saint-Étienne-lès-Bayonne, dans le quartier Saint-Étienne. Les tombes présentent peu d'intérêt artistique, mais témoignent pour certaines du passé historique local. Il n'y a pas de chapelles funéraires. Une partie est surélevée. Il existe un carré militaire pour les soldats français et où des marins allemands ont été enterrés pendant l'Occupation.
 </t>
         </is>
       </c>
@@ -524,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_Saint-%C3%89tienne_de_Bayonne</t>
+          <t>Cimetière_Saint-Étienne_de_Bayonne</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -542,13 +556,15 @@
           <t>Personnalités</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Émile Betsellère (1847-1880), peintre ;
 Léon Bonnat (1833-1922), peintre ;
 le général Charles Bourbaki (1816-1897) ;
 le général Joseph Lafont (1874-1961), dirigeant de la fédération du scoutisme français ;
-des membres de la famille du cardinal Charles Lavigerie (1825-1892), cardinal archevêque d'Alger et fondateur des Pères blancs[4].
+des membres de la famille du cardinal Charles Lavigerie (1825-1892), cardinal archevêque d'Alger et fondateur des Pères blancs.
 			Le cimetière à l'ombre de l'église Saint-Étienne-lès-Bayonne.
 			Tombe de Betsellère.
 			Tombe de Léon Bonnat.
